--- a/medicine/Enfance/Kouam_Tawa/Kouam_Tawa.xlsx
+++ b/medicine/Enfance/Kouam_Tawa/Kouam_Tawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kouam Tawa est un auteur dramatique, poète et metteur en scène camerounais.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, éducation et débuts
-Kouam Tawa est né le 31 mai 1974 à Bafoussam, dans l’Ouest du Cameroun[1],[2].
-Carrière
-Résidant "au village" dans son Ouest du Cameroun natal, il s'adonne à la littérature, au théâtre et à l’animation des ateliers d’écriture et de dramaturgie. Ce qui l'emmène à voyager dans plusieurs pays de l’espace francophone[2].
-Il a obtenu plusieurs bourses d’écriture et est auteur d'une quinzaine de pièces mises en lecture, en espace ou en scène en Afrique, en Europe, en Amérique du Nord et au Japon[3].
-Trois livres pour la jeunesse figurent parmi ses dernières publications : 
-Mon garçon, ma fille, Pourquoi m’appelle-t-on parapluie ? et L’homme à l’oiseau[2].
-Il codirige La compagnie Feugham, une troupe professionnelle de théâtre basée à Bafoussam[4].
+          <t>Enfance, éducation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kouam Tawa est né le 31 mai 1974 à Bafoussam, dans l’Ouest du Cameroun,.
 </t>
         </is>
       </c>
@@ -546,14 +557,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Premier prix ACCT de littérature africaine pour la jeunesse,
-Prix poésie des lecteurs Lire et faire Lire,
-Lauréat des bourses d’écriture de l’Association Beaumarchais, du Centre National du Livre, du programme En quête d’auteurs AFAA-Beaumarchais, de la Direction de la Musique, de la Danse, du Théâtre et des Spectacles, du programme Visa pour la création de CulturesFrance et d’Artcena.</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résidant "au village" dans son Ouest du Cameroun natal, il s'adonne à la littérature, au théâtre et à l’animation des ateliers d’écriture et de dramaturgie. Ce qui l'emmène à voyager dans plusieurs pays de l’espace francophone.
+Il a obtenu plusieurs bourses d’écriture et est auteur d'une quinzaine de pièces mises en lecture, en espace ou en scène en Afrique, en Europe, en Amérique du Nord et au Japon.
+Trois livres pour la jeunesse figurent parmi ses dernières publications : 
+Mon garçon, ma fille, Pourquoi m’appelle-t-on parapluie ? et L’homme à l’oiseau.
+Il codirige La compagnie Feugham, une troupe professionnelle de théâtre basée à Bafoussam.
+</t>
         </is>
       </c>
     </row>
@@ -578,13 +598,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Premier prix ACCT de littérature africaine pour la jeunesse,
+Prix poésie des lecteurs Lire et faire Lire,
+Lauréat des bourses d’écriture de l’Association Beaumarchais, du Centre National du Livre, du programme En quête d’auteurs AFAA-Beaumarchais, de la Direction de la Musique, de la Danse, du Théâtre et des Spectacles, du programme Visa pour la création de CulturesFrance et d’Artcena.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kouam_Tawa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kouam_Tawa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Poèmes
-Matin de fête, collection Tango, Éditions Donner à Voir, 2017.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poèmes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Matin de fête, collection Tango, Éditions Donner à Voir, 2017.
 Le bruit des fleuves, Éditions Tertium, 2017.
 Je verbe, Éditions Clé, 2017.
 Chemin faisant, Éditions Unicité, 2017.
